--- a/資料集/House的組合/Import Database.xlsx
+++ b/資料集/House的組合/Import Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Database Project1222\資料集\House的組合\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C198A12E-77BC-4EA0-A161-21CFC52C957D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D5254-D933-4B47-AF65-91DD4936349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAC98447-8132-4182-8340-DED1EFF239F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Equipment.csv</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>To copy</t>
+  </si>
+  <si>
+    <t>Sdetail.csv</t>
+  </si>
+  <si>
+    <t>Sdetail</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF58978B-2DB3-4F6C-B95E-F52AC0793F5D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="1" sqref="F8 F11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +646,25 @@
         <v>.import "User.csv" User</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="str">
+        <f t="shared" ref="F8" si="1">_xlfn.CONCAT(".import ",A8,B8,C8," ",D8)</f>
+        <v>.import "Sdetail.csv" Sdetail</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
